--- a/data_files/scholars/WBS Warwick Scholars UG_Aug22_ID_anonym.xlsx
+++ b/data_files/scholars/WBS Warwick Scholars UG_Aug22_ID_anonym.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matt/Google Drive/Warwick/PhD/Work/WBS/TK/FYWP Data Project/fywp_project/data_files/scholars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35197AAA-C0CE-D943-A27A-C86AB2DD3289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3BA460-5A39-534C-9334-1BF9859B0ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15360" xr2:uid="{F1ECA07D-DE96-8845-BFAF-9777D7DA54E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="28">
   <si>
     <t>ID_anonym</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t xml:space="preserve">Postcode (IMD 1), GCSE School Marker </t>
-  </si>
-  <si>
-    <t>w</t>
   </si>
 </sst>
 </file>
@@ -522,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1A4A25-A745-2944-94B4-1BE6C7D9A8EE}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -920,11 +917,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
